--- a/coding to be done.xlsx
+++ b/coding to be done.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5458B9-36B3-4C01-8658-77ADC705E16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30653C8A-DBD5-4A76-913C-0A4DE41A4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ignore" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
   <si>
     <t>Ticker</t>
   </si>
@@ -127,90 +127,6 @@
     <t>Investment Amount</t>
   </si>
   <si>
-    <t>GMT3SUSDT</t>
-  </si>
-  <si>
-    <t>SUSHI3SUSDT</t>
-  </si>
-  <si>
-    <t>SAND3SUSDT</t>
-  </si>
-  <si>
-    <t>APE3SUSDT</t>
-  </si>
-  <si>
-    <t>MATIC3SUSDT</t>
-  </si>
-  <si>
-    <t>MANA3SUSDT</t>
-  </si>
-  <si>
-    <t>SOL3SUSDT</t>
-  </si>
-  <si>
-    <t>AVAX3SUSDT</t>
-  </si>
-  <si>
-    <t>DOGE3SUSDT</t>
-  </si>
-  <si>
-    <t>AXS3SUSDT</t>
-  </si>
-  <si>
-    <t>NEAR3SUSDT</t>
-  </si>
-  <si>
-    <t>GALAX3SUSDT</t>
-  </si>
-  <si>
-    <t>EOS3SUSDT</t>
-  </si>
-  <si>
-    <t>UNI3SUSDT</t>
-  </si>
-  <si>
-    <t>ETH3SUSDT</t>
-  </si>
-  <si>
-    <t>VET3SUSDT</t>
-  </si>
-  <si>
-    <t>LTC3SUSDT</t>
-  </si>
-  <si>
-    <t>FTM3SUSDT</t>
-  </si>
-  <si>
-    <t>BTC3SUSDT</t>
-  </si>
-  <si>
-    <t>ADA3SUSDT</t>
-  </si>
-  <si>
-    <t>BNB3SUSDT</t>
-  </si>
-  <si>
-    <t>JASMY3SUSDT</t>
-  </si>
-  <si>
-    <t>DOT3SUSDT</t>
-  </si>
-  <si>
-    <t>ATOM3SUSDT</t>
-  </si>
-  <si>
-    <t>AAVE3SUSDT</t>
-  </si>
-  <si>
-    <t>XRP3SUSDT</t>
-  </si>
-  <si>
-    <t>LINK3SUSDT</t>
-  </si>
-  <si>
-    <t>BCH3SUSDT</t>
-  </si>
-  <si>
     <t>Grid Levels</t>
   </si>
   <si>
@@ -223,9 +139,6 @@
     <t>Low Price</t>
   </si>
   <si>
-    <t>Current Price to high price %</t>
-  </si>
-  <si>
     <t>Grid Size %</t>
   </si>
   <si>
@@ -268,27 +181,12 @@
     <t>AUTO OPEN TRADES FOR MULTIPLE TRADES ONLY</t>
   </si>
   <si>
-    <t>I will run the same pairs in the multiple table.  When the trades all close with either a sl or tp then the same trades will reopen again and so on</t>
-  </si>
-  <si>
     <t>We will need a button down the bottom that switches from "auto reopen on"  "auto reopen off"</t>
   </si>
   <si>
-    <t>"Auto reopen off" is the same that happens now.  Trades shutdown % are all reset to 0.</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Auto reopen on".  </t>
   </si>
   <si>
-    <t xml:space="preserve">Trades shutdown with tp or sl. All % are reset to 0.  </t>
-  </si>
-  <si>
-    <t>The program will need to refer to the table below to get the date that is required to be inputed into the "new bot" window on bitsgap.</t>
-  </si>
-  <si>
-    <t>The grey cells are manually input by me. I will need to adjust these so they need to maybe be on another tab on the app.</t>
-  </si>
-  <si>
     <t>Alarm when TP or SL is hit.</t>
   </si>
   <si>
@@ -302,6 +200,243 @@
   </si>
   <si>
     <t>Incude conditions below in the line that is written to the log</t>
+  </si>
+  <si>
+    <t>"Auto reopen off" is the same that happens now.  Trades shutdown % are all reset to 0.tp to 1 and sl to -1</t>
+  </si>
+  <si>
+    <t>The program will need to refer to the table below to get the data that is required to be inputed into the "new bot" window on bitsgap.</t>
+  </si>
+  <si>
+    <t>The grey cells are manually input by me. I will need to adjust these so they need to maybe be on another tab on the app or an xls file</t>
+  </si>
+  <si>
+    <t>Current Price to high price</t>
+  </si>
+  <si>
+    <t>HIGH PRICE and LOW PRICE are calculated fromwithin  this table.  Format with no decimal points</t>
+  </si>
+  <si>
+    <t>CURRENT PRICE is taken from the current price on the chart.  This is what we were looking at the other day.</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>On bitsgap.  At top of page Click on "start new bot"</t>
+  </si>
+  <si>
+    <t>Selected for auto start</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Click on "S Bot"</t>
+  </si>
+  <si>
+    <t>The "exhange will already de set to kucoin so leave this</t>
+  </si>
+  <si>
+    <t>under "pair" enter in the first selected pair from below from the "selected for auto start". (When I enter this manually it opens a drop down menu that I have to select the pair from. Sometimes there are a few options.  Hopefully you can input the pair name directly or it will be tricky</t>
+  </si>
+  <si>
+    <t>In the "Investment amount" box enter in the investment amount below.  This will be the same value used in all trades</t>
+  </si>
+  <si>
+    <t>Enter in grid levels, high price , low price.  Don’t put anything in the grid step box this will calculate its self.</t>
+  </si>
+  <si>
+    <t>other settings on bitsgap stay as default settings.</t>
+  </si>
+  <si>
+    <t>Now repeat for any other coins that are "selected for auto trade" below</t>
+  </si>
+  <si>
+    <t>Refer to "selected for auto start" in table below. these are the pairs that will be opened. The one with YES next to them</t>
+  </si>
+  <si>
+    <t>On ce the pair is open.  The chart for that pair will open. Grab the CURRENT PRICE value and insert it in the table below next to the same pair.  The current price is the red or green price on the RH side of the chart.  Once in the table below it will generate the other values.</t>
+  </si>
+  <si>
+    <t>Click on "start" "confirm".  Sometimes the "balance conversion" box will pop up, sometimes it wont.  It depends what coins I am holding in my account.  If it pops up click "confirm"  if it doesn’t then move on to next step. (Will this be an issues with 2 potential scenarios)</t>
+  </si>
+  <si>
+    <t>I will select only pairs from the table below.  When the trades all close with either a sl or tp then the same trades will reopen again and so on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trades shutdown with tp or sl. All % are reset to 0.  tp to 1 and sl to -1. Retain the pairs in the table as I will continue to use the same pairs. </t>
+  </si>
+  <si>
+    <t>GMT3L/USDT</t>
+  </si>
+  <si>
+    <t>GMT3S/USDT</t>
+  </si>
+  <si>
+    <t>SUSHI3L/USDT</t>
+  </si>
+  <si>
+    <t>SUSHI3S/USDT</t>
+  </si>
+  <si>
+    <t>SAND3L/USDT</t>
+  </si>
+  <si>
+    <t>SAND3/SUSDT</t>
+  </si>
+  <si>
+    <t>APE3L/USDT</t>
+  </si>
+  <si>
+    <t>APE3S/USDT</t>
+  </si>
+  <si>
+    <t>MATIC3L/USDT</t>
+  </si>
+  <si>
+    <t>MATIC3S/USDT</t>
+  </si>
+  <si>
+    <t>MANA3L/USDT</t>
+  </si>
+  <si>
+    <t>MANA3S/USDT</t>
+  </si>
+  <si>
+    <t>SOL3L/USDT</t>
+  </si>
+  <si>
+    <t>SOL3S/USDT</t>
+  </si>
+  <si>
+    <t>AVAX3L/USDT</t>
+  </si>
+  <si>
+    <t>AVAX3S/USDT</t>
+  </si>
+  <si>
+    <t>DOGE3L/USDT</t>
+  </si>
+  <si>
+    <t>DOGE3S/USDT</t>
+  </si>
+  <si>
+    <t>AXS3L/USDT</t>
+  </si>
+  <si>
+    <t>AXS3S/USDT</t>
+  </si>
+  <si>
+    <t>NEAR3L/USDT</t>
+  </si>
+  <si>
+    <t>NEAR3S/USDT</t>
+  </si>
+  <si>
+    <t>GALAX3L/USDT</t>
+  </si>
+  <si>
+    <t>GALAX3S/USDT</t>
+  </si>
+  <si>
+    <t>EOS3L/USDT</t>
+  </si>
+  <si>
+    <t>EOS3S/USDT</t>
+  </si>
+  <si>
+    <t>UNI3L/USDT</t>
+  </si>
+  <si>
+    <t>UNI3S/USDT</t>
+  </si>
+  <si>
+    <t>ETH3L/USDT</t>
+  </si>
+  <si>
+    <t>ETH3S/USDT</t>
+  </si>
+  <si>
+    <t>VET3L/USDT</t>
+  </si>
+  <si>
+    <t>VET3S/USDT</t>
+  </si>
+  <si>
+    <t>LTC3L/USDT</t>
+  </si>
+  <si>
+    <t>LTC3S/USDT</t>
+  </si>
+  <si>
+    <t>FTM3L/USDT</t>
+  </si>
+  <si>
+    <t>FTM3S/USDT</t>
+  </si>
+  <si>
+    <t>BTC3L/USDT</t>
+  </si>
+  <si>
+    <t>BTC3S/USDT</t>
+  </si>
+  <si>
+    <t>ADA3L/USDT</t>
+  </si>
+  <si>
+    <t>ADA3S/USDT</t>
+  </si>
+  <si>
+    <t>BNB3L/USDT</t>
+  </si>
+  <si>
+    <t>BNB3S/USDT</t>
+  </si>
+  <si>
+    <t>JASMY3/LUSDT</t>
+  </si>
+  <si>
+    <t>JASMY3S/USDT</t>
+  </si>
+  <si>
+    <t>DOT3L/USDT</t>
+  </si>
+  <si>
+    <t>DOT3S/USDT</t>
+  </si>
+  <si>
+    <t>ATOM3L/USDT</t>
+  </si>
+  <si>
+    <t>ATOM3S/USDT</t>
+  </si>
+  <si>
+    <t>AAVE3L/USDT</t>
+  </si>
+  <si>
+    <t>AAVE3S/USDT</t>
+  </si>
+  <si>
+    <t>XRP3L/USDT</t>
+  </si>
+  <si>
+    <t>XRP3S/USDT</t>
+  </si>
+  <si>
+    <t>LINK3L/USDT</t>
+  </si>
+  <si>
+    <t>LINK3S/USDT</t>
+  </si>
+  <si>
+    <t>BCH3L/USDT</t>
+  </si>
+  <si>
+    <t>BCH3S/USDT</t>
   </si>
 </sst>
 </file>
@@ -311,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,12 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -461,8 +590,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,7 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,22 +988,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1525,7 +1678,7 @@
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="1">
@@ -1551,7 +1704,7 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
@@ -1577,7 +1730,7 @@
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -1603,7 +1756,7 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1">
@@ -1629,7 +1782,7 @@
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1">
@@ -1655,7 +1808,7 @@
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1">
@@ -1681,7 +1834,7 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1">
@@ -1707,7 +1860,7 @@
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1">
@@ -1993,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2003,49 +2156,49 @@
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="14" t="s">
-        <v>92</v>
+    <row r="1" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>-2</v>
@@ -2053,7 +2206,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2061,7 +2214,7 @@
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -2069,7 +2222,7 @@
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2092,17 +2245,17 @@
   <sheetData>
     <row r="1" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2112,843 +2265,1586 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="11">
+        <v>100</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D32" s="15">
+        <v>20</v>
+      </c>
+      <c r="E32" s="13">
+        <v>19555</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G32" s="15">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12">
+        <f>E32+(F32*E32)</f>
+        <v>19867.88</v>
+      </c>
+      <c r="I32" s="12">
+        <f>((100-G32)*0.01)*H32</f>
+        <v>15894.304000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D33" s="15">
+        <v>20</v>
+      </c>
+      <c r="E33" s="14">
+        <v>19510</v>
+      </c>
+      <c r="F33" s="15">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G33" s="15">
+        <v>30</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" ref="H33:H39" si="0">E33+(F33*E33)</f>
+        <v>19939.22</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" ref="I33:I39" si="1">((100-G33)*0.01)*H33</f>
+        <v>13957.454000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D34" s="15">
+        <v>20</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D35" s="15">
+        <v>20</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D36" s="15">
+        <v>20</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="D37" s="15">
+        <v>20</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="15">
+        <v>20</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="15">
+        <v>20</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="15">
+        <v>20</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="12">
+        <f t="shared" ref="H40:H69" si="2">E40+(F40*E40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" ref="I40:I69" si="3">((100-G40)*0.01)*H40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="15">
+        <v>20</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="15">
+        <v>20</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="15">
+        <v>20</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="15">
+        <v>20</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="15">
+        <v>20</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="15">
+        <v>20</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="15">
+        <v>20</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="15">
+        <v>20</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="15">
+        <v>20</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="15">
+        <v>20</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="15">
+        <v>20</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>21</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="15">
+        <v>20</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>22</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="15">
+        <v>20</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>23</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="15">
+        <v>20</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="15">
+        <v>20</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="15">
+        <v>20</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="15">
+        <v>20</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="15">
+        <v>20</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="15">
+        <v>20</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="15">
+        <v>20</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="15">
+        <v>20</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="15">
+        <v>20</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="15">
+        <v>20</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>33</v>
       </c>
-      <c r="D15" s="6">
-        <v>100</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="13">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11">
-        <v>20.456</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="F18" s="13">
-        <v>20</v>
-      </c>
-      <c r="G18" s="8">
-        <f>D18*0.016 + D18</f>
-        <v>20.783296</v>
-      </c>
-      <c r="H18" s="8">
-        <f>G18*0.8</f>
-        <v>16.6266368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="B64" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="15">
+        <v>20</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>34</v>
       </c>
-      <c r="C19" s="13">
-        <v>20</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="13">
-        <v>20</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="B65" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="15">
+        <v>20</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>35</v>
       </c>
-      <c r="C21" s="13">
-        <v>20</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="13">
-        <v>20</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="B66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="15">
+        <v>20</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>36</v>
       </c>
-      <c r="C23" s="13">
-        <v>20</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="13">
-        <v>20</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="12" t="s">
+      <c r="B67" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="15">
+        <v>20</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>37</v>
       </c>
-      <c r="C25" s="13">
-        <v>20</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="13">
-        <v>20</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="B68" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="15">
+        <v>20</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>38</v>
       </c>
-      <c r="C27" s="13">
-        <v>20</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="B69" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="15">
+        <v>20</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>39</v>
       </c>
-      <c r="C29" s="13">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>13</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="13">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="B70" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="15">
+        <v>20</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="12">
+        <f>E70+(F70*E70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="12">
+        <f>((100-G70)*0.01)*H70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>40</v>
       </c>
-      <c r="C31" s="13">
-        <v>20</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="13">
-        <v>20</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="B71" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="15">
+        <v>20</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="12">
+        <f t="shared" ref="H71:H87" si="4">E71+(F71*E71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" ref="I71:I87" si="5">((100-G71)*0.01)*H71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>41</v>
       </c>
-      <c r="C33" s="13">
-        <v>20</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="13">
-        <v>20</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="B72" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="15">
+        <v>20</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>42</v>
       </c>
-      <c r="C35" s="13">
-        <v>20</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>19</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="13">
-        <v>20</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>20</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="B73" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="15">
+        <v>20</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>43</v>
       </c>
-      <c r="C37" s="13">
-        <v>20</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>21</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="13">
-        <v>20</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>22</v>
-      </c>
-      <c r="B39" s="12" t="s">
+      <c r="B74" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="15">
+        <v>20</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>44</v>
       </c>
-      <c r="C39" s="13">
-        <v>20</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="13">
-        <v>20</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>24</v>
-      </c>
-      <c r="B41" s="12" t="s">
+      <c r="B75" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="15">
+        <v>20</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>45</v>
       </c>
-      <c r="C41" s="13">
-        <v>20</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>25</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="13">
-        <v>20</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>26</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="B76" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="15">
+        <v>20</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>46</v>
       </c>
-      <c r="C43" s="13">
-        <v>20</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>27</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="13">
-        <v>20</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>28</v>
-      </c>
-      <c r="B45" s="12" t="s">
+      <c r="B77" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="15">
+        <v>20</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>47</v>
       </c>
-      <c r="C45" s="13">
-        <v>20</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>29</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="13">
-        <v>20</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>30</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="B78" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="15">
+        <v>20</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>48</v>
       </c>
-      <c r="C47" s="13">
-        <v>20</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>31</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="13">
-        <v>20</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>32</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="B79" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="15">
+        <v>20</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>49</v>
       </c>
-      <c r="C49" s="13">
-        <v>20</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>33</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="13">
-        <v>20</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>34</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="B80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="15">
+        <v>20</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>50</v>
       </c>
-      <c r="C51" s="13">
-        <v>20</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>35</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="13">
-        <v>20</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>36</v>
-      </c>
-      <c r="B53" s="12" t="s">
+      <c r="B81" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="15">
+        <v>20</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>51</v>
       </c>
-      <c r="C53" s="13">
-        <v>20</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>37</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="13">
-        <v>20</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>38</v>
-      </c>
-      <c r="B55" s="12" t="s">
+      <c r="B82" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="15">
+        <v>20</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>52</v>
       </c>
-      <c r="C55" s="13">
-        <v>20</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>39</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="13">
-        <v>20</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>40</v>
-      </c>
-      <c r="B57" s="12" t="s">
+      <c r="B83" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="15">
+        <v>20</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>53</v>
       </c>
-      <c r="C57" s="13">
-        <v>20</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>41</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="13">
-        <v>20</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>42</v>
-      </c>
-      <c r="B59" s="12" t="s">
+      <c r="B84" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="15">
+        <v>20</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>54</v>
       </c>
-      <c r="C59" s="13">
-        <v>20</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>43</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="13">
-        <v>20</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>44</v>
-      </c>
-      <c r="B61" s="12" t="s">
+      <c r="B85" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="15">
+        <v>20</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>55</v>
       </c>
-      <c r="C61" s="13">
-        <v>20</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>45</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="13">
-        <v>20</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>46</v>
-      </c>
-      <c r="B63" s="12" t="s">
+      <c r="B86" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="15">
+        <v>20</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>56</v>
       </c>
-      <c r="C63" s="13">
-        <v>20</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>47</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="13">
-        <v>20</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>48</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="13">
-        <v>20</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>49</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="13">
-        <v>20</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>50</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="13">
-        <v>20</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>51</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="13">
-        <v>20</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>52</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="13">
-        <v>20</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>53</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="13">
-        <v>20</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>54</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="13">
-        <v>20</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>55</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="13">
-        <v>20</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>56</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="13">
-        <v>20</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="B87" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="15">
+        <v>20</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coding to be done.xlsx
+++ b/coding to be done.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Task\Richard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30653C8A-DBD5-4A76-913C-0A4DE41A4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1744BE70-2EE7-416C-A51C-9F357FA9648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignore" sheetId="1" r:id="rId1"/>
     <sheet name="1 Closed Trade Log" sheetId="3" r:id="rId2"/>
     <sheet name="2 alarms" sheetId="4" r:id="rId3"/>
     <sheet name="3 auto open trades" sheetId="2" r:id="rId4"/>
+    <sheet name="4 auto open update MULTIPLE" sheetId="5" r:id="rId5"/>
+    <sheet name="5 auto open update SINGLE" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="252">
   <si>
     <t>Ticker</t>
   </si>
@@ -437,16 +451,359 @@
   </si>
   <si>
     <t>BCH3S/USDT</t>
+  </si>
+  <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>CARDANO</t>
+  </si>
+  <si>
+    <t>APECOIN</t>
+  </si>
+  <si>
+    <t>COSMOS HUB</t>
+  </si>
+  <si>
+    <t>AVALANCHE</t>
+  </si>
+  <si>
+    <t>AXIE INFINITY</t>
+  </si>
+  <si>
+    <t>BITCOIN CASH</t>
+  </si>
+  <si>
+    <t>BINANCE COIN</t>
+  </si>
+  <si>
+    <t>BITCOIN</t>
+  </si>
+  <si>
+    <t>DOGECOIN</t>
+  </si>
+  <si>
+    <t>JASMYCOIN</t>
+  </si>
+  <si>
+    <t>POLKADOT</t>
+  </si>
+  <si>
+    <t>ETHEREUM</t>
+  </si>
+  <si>
+    <t>FANTOM</t>
+  </si>
+  <si>
+    <t>GALA</t>
+  </si>
+  <si>
+    <t>STEPN</t>
+  </si>
+  <si>
+    <t>CHAINLINK</t>
+  </si>
+  <si>
+    <t>LITECOIN</t>
+  </si>
+  <si>
+    <t>DECENTRALAND</t>
+  </si>
+  <si>
+    <t>POLYGON</t>
+  </si>
+  <si>
+    <t>NEAR PROTOCOL</t>
+  </si>
+  <si>
+    <t>THE SANDBOX</t>
+  </si>
+  <si>
+    <t>SOLANA</t>
+  </si>
+  <si>
+    <t>SUSHI SWAP</t>
+  </si>
+  <si>
+    <t>UNISWAP</t>
+  </si>
+  <si>
+    <t>VECHAIN</t>
+  </si>
+  <si>
+    <t>BTCUSDT SIGNAL</t>
+  </si>
+  <si>
+    <t>AAVEUSDT</t>
+  </si>
+  <si>
+    <t>ADAUSDT</t>
+  </si>
+  <si>
+    <t>APEUSDT</t>
+  </si>
+  <si>
+    <t>ATOMUSDT</t>
+  </si>
+  <si>
+    <t>AVAXUSDT</t>
+  </si>
+  <si>
+    <t>AXSUSDT</t>
+  </si>
+  <si>
+    <t>BCHUSDT</t>
+  </si>
+  <si>
+    <t>BNBUSDT</t>
+  </si>
+  <si>
+    <t>DOGEUSDT</t>
+  </si>
+  <si>
+    <t>DOTUSDT</t>
+  </si>
+  <si>
+    <t>EOSUSDT</t>
+  </si>
+  <si>
+    <t>ETHUSDT</t>
+  </si>
+  <si>
+    <t>FTMUSDT</t>
+  </si>
+  <si>
+    <t>GALAXUSDT</t>
+  </si>
+  <si>
+    <t>GMTUSDT</t>
+  </si>
+  <si>
+    <t>JASMYUSDT</t>
+  </si>
+  <si>
+    <t>LINKUSDT</t>
+  </si>
+  <si>
+    <t>LTCUSDT</t>
+  </si>
+  <si>
+    <t>MANAUSDT</t>
+  </si>
+  <si>
+    <t>MATICUSDT</t>
+  </si>
+  <si>
+    <t>NEARUSDT</t>
+  </si>
+  <si>
+    <t>SANDUSDT</t>
+  </si>
+  <si>
+    <t>SOLUSDT</t>
+  </si>
+  <si>
+    <t>SUSHIUSDT</t>
+  </si>
+  <si>
+    <t>UNIUSDT</t>
+  </si>
+  <si>
+    <t>VETUSDT</t>
+  </si>
+  <si>
+    <t>XRPUSDT</t>
+  </si>
+  <si>
+    <t>PAIR</t>
+  </si>
+  <si>
+    <t>CHG%</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>Get CHG% from scraping tradingview watchlist</t>
+  </si>
+  <si>
+    <t>Automatically sort PAIR / CHG% columns to read from largest % to lowest %</t>
+  </si>
+  <si>
+    <t>Bitcoin (BTC) is the largest of all the crypto.  When bitcoin moves up most other alt coins move with it. And vice versa.</t>
+  </si>
+  <si>
+    <t>Number of pairs to open with BTC signal</t>
+  </si>
+  <si>
+    <t>The idea is that when bitcoin gets a buy signal I don’t actually trade bitcoin but buy the current # of strongest coins selected from the list</t>
+  </si>
+  <si>
+    <t>Scan trading view every 1 minute for the CHG% data</t>
+  </si>
+  <si>
+    <t>The largest % are currently the strongest pairs and suitable for buy positions</t>
+  </si>
+  <si>
+    <t>The smallest or negative % pairs are suitable for sell positions</t>
+  </si>
+  <si>
+    <t>the "Number of pairs to open with BTC signal" determines how many pairs will be opened when BTCUSD signal activates</t>
+  </si>
+  <si>
+    <t>Example:  The PAIR / CHG% is auto updating every 1 minute and sorting the CHG% from high to low.  The BTC SIGNAL is set manually to 4. The BTCUSD SIGNAL gets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> automatically activated with a BUY (We will talk later how it gets this signal).  So the top 4 pairs get buy signals.  </t>
+  </si>
+  <si>
+    <t>If the BTCUSDT SIGNAL got a sell signal then the bottom 4 pairs would get sell signals</t>
+  </si>
+  <si>
+    <t>BUY PAIRS</t>
+  </si>
+  <si>
+    <t>SELL PAIRS</t>
+  </si>
+  <si>
+    <t>Unfortunately it is not as easy as  simply buying or sell a specific pair.  There are different version for each pair for BUY and SELL signals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For example if AAVEUSDT, ADAUSDT, APEUSDT, ATOMUSDT were the top 4 highest % that got a buy signal the actual 4 pairs you </t>
+  </si>
+  <si>
+    <t>ACTUAL ORDER TO BITSGAP</t>
+  </si>
+  <si>
+    <t>FROM TRADINGVIEW</t>
+  </si>
+  <si>
+    <t>SAND3S/USDT</t>
+  </si>
+  <si>
+    <t>would send to bitsgap would be AAVE3L/USDT, ADA3LUSDT,APE3L/USDT, ATOM3S/USDT</t>
+  </si>
+  <si>
+    <t>When Bitcoin gets a sell signal I trade the current # of weakest coins from the list. This helps me spread my risk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And for a SELL BTCUSD SIGNAL it would be the bottom 4 but with the "3S/" in the middle…</t>
+  </si>
+  <si>
+    <t>AUTO START SETTINGS</t>
+  </si>
+  <si>
+    <t>Then refer to the AUTO START SETTINGS table for the actual settings to start the trades</t>
+  </si>
+  <si>
+    <t>GALAUSDT</t>
+  </si>
+  <si>
+    <t>MULTIPLE SYSTEM</t>
+  </si>
+  <si>
+    <t>SINGLE SYSTEM</t>
+  </si>
+  <si>
+    <t>Investment / USDT</t>
+  </si>
+  <si>
+    <t>Tradingview signal</t>
+  </si>
+  <si>
+    <t>Tradingview Signal</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>PAIR SELECTION TABLE</t>
+  </si>
+  <si>
+    <t>Investment / USDT is the amount to be entered for each trade</t>
+  </si>
+  <si>
+    <t>Each pair is traded individually, with it's own TP and SL</t>
+  </si>
+  <si>
+    <t>See picture below.  I am using a simple MACD indicator on trading view to trigger the buy and sell orders for each pair.</t>
+  </si>
+  <si>
+    <t>when a buy order closes a sell order will open at the same time.and vice versa.  So each pair will always be in a trade either a buy or sell</t>
+  </si>
+  <si>
+    <t>See the BUY and SELL area on the table.  Green squares are activated buys and red are activated sells</t>
+  </si>
+  <si>
+    <t>When the histogram bar crosses down over the 0 line this triggers a crossing down alert and opens the sell order(BTC3SUSDT) and also closes the buy order (BTC3LUSDT)</t>
+  </si>
+  <si>
+    <t>When the histogram bar crosses up over the 0 line this triggers a crossing up alert and opens the buy order(BTC3LUSDT) and also closes the sell order (BTC3SUSDT)</t>
+  </si>
+  <si>
+    <t>For example on the table you see that AAVE just got a CROSSING DOWN signal so it will open AAVE3S/USDT and would have closed AAVE3L/USDT</t>
+  </si>
+  <si>
+    <t>also add the tp and the sl to the SINGLE app along with the other details as what happens now when we manually start a trade.</t>
+  </si>
+  <si>
+    <t>This means each trade can be closed in 3 different ways.  By hitting the TP or SL, which is how the app currently works, and also closed when the crossing up / crossing down alert is received.</t>
+  </si>
+  <si>
+    <t>I would imagine that most times they will close with the cross up / cross down alerts but want the sl and tp as an extra safety if the market drops / rises quickly.</t>
+  </si>
+  <si>
+    <t>I will have the same alerts set on each of the pairs in the table so up to 28 alerts coming in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to set up the webhook to bring these alerts to this table and trigger the buys and sells of each pair.  </t>
+  </si>
+  <si>
+    <t>Once opened it shows up in the existing app the way the manual trades show up now.</t>
+  </si>
+  <si>
+    <t>It will close the 3L order first and then intiate the auto start sequence to open the 3S trade.  Open the start bot window in bitsgap and fill in the fields.  We have already covered this</t>
+  </si>
+  <si>
+    <t>Not sure if you will need to refer to the pair selection table to the far left as the alerts will have the correct format to open the trade in bitsgap.</t>
+  </si>
+  <si>
+    <t>Bitsgap needs the / in the pair name to correctly ID the pair but then drops the / after that when reffering to that pair…..</t>
+  </si>
+  <si>
+    <t>Grey cells are manually filled in by me</t>
+  </si>
+  <si>
+    <t>If the trade is closed by SL or TP then it wont reopen again until it gets an alert from trading view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,8 +958,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +1185,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -943,6 +1334,272 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -988,14 +1645,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1005,6 +1660,98 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,6 +1808,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>546097</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6783AA-634F-44F5-ABD0-D23A213D2787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17659350" y="4991101"/>
+          <a:ext cx="12014197" cy="5753099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1359,11 +2155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="N1" sqref="N1:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,9 +2169,11 @@
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,22 +2195,27 @@
       <c r="K1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>-24.441132639999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>423166838.27758098</v>
       </c>
       <c r="H2">
@@ -1424,22 +2227,27 @@
       <c r="K2">
         <v>39.723344349999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>-18.446126660000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>139124408.28778601</v>
       </c>
       <c r="H3">
@@ -1451,22 +2259,27 @@
       <c r="K3">
         <v>32.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>-13.7409201</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>104703142.98912901</v>
       </c>
       <c r="H4">
@@ -1478,22 +2291,27 @@
       <c r="K4">
         <v>20.386227000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>-13.456293029999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>77714554.569397196</v>
       </c>
       <c r="H5">
@@ -1505,22 +2323,27 @@
       <c r="K5">
         <v>20.043258829999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>-12.379919429999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>64382362.634084798</v>
       </c>
       <c r="H6">
@@ -1532,22 +2355,27 @@
       <c r="K6">
         <v>20.022267580000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>-12.25225225</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>54424068.356497601</v>
       </c>
       <c r="H7">
@@ -1559,22 +2387,27 @@
       <c r="K7">
         <v>19.151376150000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>-11.703511049999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>46188148.810249902</v>
       </c>
       <c r="H8">
@@ -1586,22 +2419,27 @@
       <c r="K8">
         <v>18.446153850000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>-10.484581500000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>44438414.264775999</v>
       </c>
       <c r="H9">
@@ -1613,22 +2451,27 @@
       <c r="K9">
         <v>18.023255809999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>-9.0217391300000003</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>36438673.187471896</v>
       </c>
       <c r="H10">
@@ -1640,22 +2483,27 @@
       <c r="K10">
         <v>17.946058090000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>-9.0010405799999997</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>23012096.798315998</v>
       </c>
       <c r="H11">
@@ -1667,8 +2515,14 @@
       <c r="K11">
         <v>16.742081450000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1678,7 +2532,7 @@
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="1">
@@ -1693,8 +2547,14 @@
       <c r="K12">
         <v>15.320665079999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +2564,7 @@
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
@@ -1719,8 +2579,14 @@
       <c r="K13">
         <v>14.728288470000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +2596,7 @@
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -1745,8 +2611,14 @@
       <c r="K14">
         <v>14.352554080000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +2628,7 @@
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1">
@@ -1771,8 +2643,14 @@
       <c r="K15">
         <v>13.85538109</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1782,7 +2660,7 @@
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1">
@@ -1796,6 +2674,12 @@
       </c>
       <c r="K16">
         <v>13.73425437</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1808,7 +2692,7 @@
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1">
@@ -1822,6 +2706,12 @@
       </c>
       <c r="K17">
         <v>12.88116419</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1834,7 +2724,7 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1">
@@ -1849,6 +2739,12 @@
       <c r="K18">
         <v>12.20435194</v>
       </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1860,7 +2756,7 @@
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1">
@@ -1874,6 +2770,12 @@
       </c>
       <c r="K19">
         <v>11.66477916</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1901,6 +2803,12 @@
       <c r="K20">
         <v>11.66044776</v>
       </c>
+      <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1927,6 +2835,12 @@
       <c r="K21">
         <v>11.290959340000001</v>
       </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1953,6 +2867,12 @@
       <c r="K22">
         <v>11.082049680000001</v>
       </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1979,6 +2899,12 @@
       <c r="K23">
         <v>10.94462562</v>
       </c>
+      <c r="N23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2005,6 +2931,12 @@
       <c r="K24">
         <v>10.531142859999999</v>
       </c>
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2031,6 +2963,12 @@
       <c r="K25">
         <v>10.25730181</v>
       </c>
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2057,6 +2995,12 @@
       <c r="K26">
         <v>10.07556675</v>
       </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2083,6 +3027,12 @@
       <c r="K27">
         <v>8.6301369900000005</v>
       </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2110,6 +3060,12 @@
       <c r="K28">
         <v>8.3078802700000001</v>
       </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2138,12 +3094,15 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N1:N29">
+    <sortCondition ref="N1:N29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2156,42 +3115,42 @@
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="10" t="s">
+    <row r="3" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -2234,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,11 +3223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,8 +3238,8 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
@@ -2394,43 +3353,41 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <v>100</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2438,29 +3395,29 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="15">
-        <v>20</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="D32" s="13">
+        <v>20</v>
+      </c>
+      <c r="E32" s="11">
         <v>19555</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <v>1.6E-2</v>
       </c>
-      <c r="G32" s="15">
-        <v>20</v>
-      </c>
-      <c r="H32" s="12">
+      <c r="G32" s="13">
+        <v>20</v>
+      </c>
+      <c r="H32" s="10">
         <f>E32+(F32*E32)</f>
         <v>19867.88</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="10">
         <f>((100-G32)*0.01)*H32</f>
         <v>15894.304000000002</v>
       </c>
@@ -2469,29 +3426,29 @@
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="15">
-        <v>20</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="13">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12">
         <v>19510</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="13">
         <v>30</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <f t="shared" ref="H33:H39" si="0">E33+(F33*E33)</f>
         <v>19939.22</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <f t="shared" ref="I33:I39" si="1">((100-G33)*0.01)*H33</f>
         <v>13957.454000000002</v>
       </c>
@@ -2500,23 +3457,23 @@
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="15">
-        <v>20</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="12">
+      <c r="D34" s="13">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2525,23 +3482,23 @@
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="15">
-        <v>20</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="12">
+      <c r="D35" s="13">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2550,23 +3507,23 @@
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="15">
-        <v>20</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="12">
+      <c r="D36" s="13">
+        <v>20</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2575,23 +3532,23 @@
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="15">
-        <v>20</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="12">
+      <c r="D37" s="13">
+        <v>20</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2600,23 +3557,23 @@
       <c r="A38">
         <v>7</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="15">
-        <v>20</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="12">
+      <c r="D38" s="13">
+        <v>20</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2625,23 +3582,23 @@
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="15">
-        <v>20</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="12">
+      <c r="D39" s="13">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2650,23 +3607,23 @@
       <c r="A40">
         <v>9</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="15">
-        <v>20</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="12">
+      <c r="D40" s="13">
+        <v>20</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="10">
         <f t="shared" ref="H40:H69" si="2">E40+(F40*E40)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <f t="shared" ref="I40:I69" si="3">((100-G40)*0.01)*H40</f>
         <v>0</v>
       </c>
@@ -2675,23 +3632,23 @@
       <c r="A41">
         <v>10</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="15">
-        <v>20</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="12">
+      <c r="D41" s="13">
+        <v>20</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2700,23 +3657,23 @@
       <c r="A42">
         <v>11</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="15">
-        <v>20</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="12">
+      <c r="D42" s="13">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2725,23 +3682,23 @@
       <c r="A43">
         <v>12</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="15">
-        <v>20</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="12">
+      <c r="D43" s="13">
+        <v>20</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2750,23 +3707,23 @@
       <c r="A44">
         <v>13</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="15">
-        <v>20</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="12">
+      <c r="D44" s="13">
+        <v>20</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2775,23 +3732,23 @@
       <c r="A45">
         <v>14</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="15">
-        <v>20</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="12">
+      <c r="D45" s="13">
+        <v>20</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2800,23 +3757,23 @@
       <c r="A46">
         <v>15</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="15">
-        <v>20</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="12">
+      <c r="D46" s="13">
+        <v>20</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2825,23 +3782,23 @@
       <c r="A47">
         <v>16</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="15">
-        <v>20</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="12">
+      <c r="D47" s="13">
+        <v>20</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2850,23 +3807,23 @@
       <c r="A48">
         <v>17</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="15">
-        <v>20</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="12">
+      <c r="D48" s="13">
+        <v>20</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2875,23 +3832,23 @@
       <c r="A49">
         <v>18</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="15">
-        <v>20</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="12">
+      <c r="D49" s="13">
+        <v>20</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2900,23 +3857,23 @@
       <c r="A50">
         <v>19</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="15">
-        <v>20</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="12">
+      <c r="D50" s="13">
+        <v>20</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2925,23 +3882,23 @@
       <c r="A51">
         <v>20</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="15">
-        <v>20</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="12">
+      <c r="D51" s="13">
+        <v>20</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2950,23 +3907,23 @@
       <c r="A52">
         <v>21</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="15">
-        <v>20</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="12">
+      <c r="D52" s="13">
+        <v>20</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2975,23 +3932,23 @@
       <c r="A53">
         <v>22</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="15">
-        <v>20</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="12">
+      <c r="D53" s="13">
+        <v>20</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3000,23 +3957,23 @@
       <c r="A54">
         <v>23</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="15">
-        <v>20</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="12">
+      <c r="D54" s="13">
+        <v>20</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3025,23 +3982,23 @@
       <c r="A55">
         <v>24</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="15">
-        <v>20</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="12">
+      <c r="D55" s="13">
+        <v>20</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3050,23 +4007,23 @@
       <c r="A56">
         <v>25</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="15">
-        <v>20</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="12">
+      <c r="D56" s="13">
+        <v>20</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3075,23 +4032,23 @@
       <c r="A57">
         <v>26</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="15">
-        <v>20</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="12">
+      <c r="D57" s="13">
+        <v>20</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3100,23 +4057,23 @@
       <c r="A58">
         <v>27</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="15">
-        <v>20</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="12">
+      <c r="D58" s="13">
+        <v>20</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3125,23 +4082,23 @@
       <c r="A59">
         <v>28</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="15">
-        <v>20</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="12">
+      <c r="D59" s="13">
+        <v>20</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3150,23 +4107,23 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="15">
-        <v>20</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="12">
+      <c r="D60" s="13">
+        <v>20</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3175,23 +4132,23 @@
       <c r="A61">
         <v>30</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="15">
-        <v>20</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="12">
+      <c r="D61" s="13">
+        <v>20</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3200,23 +4157,23 @@
       <c r="A62">
         <v>31</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="15">
-        <v>20</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="12">
+      <c r="D62" s="13">
+        <v>20</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3225,23 +4182,23 @@
       <c r="A63">
         <v>32</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="15">
-        <v>20</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="12">
+      <c r="D63" s="13">
+        <v>20</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3250,23 +4207,23 @@
       <c r="A64">
         <v>33</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="15">
-        <v>20</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="12">
+      <c r="D64" s="13">
+        <v>20</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3275,23 +4232,23 @@
       <c r="A65">
         <v>34</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="15">
-        <v>20</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="12">
+      <c r="D65" s="13">
+        <v>20</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3300,23 +4257,23 @@
       <c r="A66">
         <v>35</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="15">
-        <v>20</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="12">
+      <c r="D66" s="13">
+        <v>20</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3325,23 +4282,23 @@
       <c r="A67">
         <v>36</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="15">
-        <v>20</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="12">
+      <c r="D67" s="13">
+        <v>20</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3350,23 +4307,23 @@
       <c r="A68">
         <v>37</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="15">
-        <v>20</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="12">
+      <c r="D68" s="13">
+        <v>20</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3375,23 +4332,23 @@
       <c r="A69">
         <v>38</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="15">
-        <v>20</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="12">
+      <c r="D69" s="13">
+        <v>20</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3400,23 +4357,23 @@
       <c r="A70">
         <v>39</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="15">
-        <v>20</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="12">
+      <c r="D70" s="13">
+        <v>20</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="10">
         <f>E70+(F70*E70)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="10">
         <f>((100-G70)*0.01)*H70</f>
         <v>0</v>
       </c>
@@ -3425,23 +4382,23 @@
       <c r="A71">
         <v>40</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="15">
-        <v>20</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="12">
+      <c r="D71" s="13">
+        <v>20</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="10">
         <f t="shared" ref="H71:H87" si="4">E71+(F71*E71)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="10">
         <f t="shared" ref="I71:I87" si="5">((100-G71)*0.01)*H71</f>
         <v>0</v>
       </c>
@@ -3450,23 +4407,23 @@
       <c r="A72">
         <v>41</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="15">
-        <v>20</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="12">
+      <c r="D72" s="13">
+        <v>20</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3475,23 +4432,23 @@
       <c r="A73">
         <v>42</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="15">
-        <v>20</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="12">
+      <c r="D73" s="13">
+        <v>20</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3500,23 +4457,23 @@
       <c r="A74">
         <v>43</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="15">
-        <v>20</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="12">
+      <c r="D74" s="13">
+        <v>20</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3525,23 +4482,23 @@
       <c r="A75">
         <v>44</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="15">
-        <v>20</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="12">
+      <c r="D75" s="13">
+        <v>20</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3550,23 +4507,23 @@
       <c r="A76">
         <v>45</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="15">
-        <v>20</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="12">
+      <c r="D76" s="13">
+        <v>20</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3575,23 +4532,23 @@
       <c r="A77">
         <v>46</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="15">
-        <v>20</v>
-      </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="12">
+      <c r="D77" s="13">
+        <v>20</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3600,23 +4557,23 @@
       <c r="A78">
         <v>47</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="15">
-        <v>20</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="12">
+      <c r="D78" s="13">
+        <v>20</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3625,23 +4582,23 @@
       <c r="A79">
         <v>48</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="15">
-        <v>20</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="12">
+      <c r="D79" s="13">
+        <v>20</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3650,23 +4607,23 @@
       <c r="A80">
         <v>49</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="15">
-        <v>20</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="12">
+      <c r="D80" s="13">
+        <v>20</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3675,23 +4632,23 @@
       <c r="A81">
         <v>50</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D81" s="15">
-        <v>20</v>
-      </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="12">
+      <c r="D81" s="13">
+        <v>20</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3700,23 +4657,23 @@
       <c r="A82">
         <v>51</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="15">
-        <v>20</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="12">
+      <c r="D82" s="13">
+        <v>20</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3725,23 +4682,23 @@
       <c r="A83">
         <v>52</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="15">
-        <v>20</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="12">
+      <c r="D83" s="13">
+        <v>20</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3750,23 +4707,23 @@
       <c r="A84">
         <v>53</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="15">
-        <v>20</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="12">
+      <c r="D84" s="13">
+        <v>20</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3775,23 +4732,23 @@
       <c r="A85">
         <v>54</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D85" s="15">
-        <v>20</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="12">
+      <c r="D85" s="13">
+        <v>20</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3800,23 +4757,23 @@
       <c r="A86">
         <v>55</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="15">
-        <v>20</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="12">
+      <c r="D86" s="13">
+        <v>20</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3825,23 +4782,23 @@
       <c r="A87">
         <v>56</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D87" s="15">
-        <v>20</v>
-      </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="12">
+      <c r="D87" s="13">
+        <v>20</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3849,4 +4806,2526 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:Z36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G1" s="41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+    </row>
+    <row r="9" spans="2:26" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="18">
+        <v>20</v>
+      </c>
+      <c r="I10" s="33">
+        <v>19555</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K10" s="18">
+        <v>20</v>
+      </c>
+      <c r="L10" s="23">
+        <f>I10+(J10*I10)</f>
+        <v>19867.88</v>
+      </c>
+      <c r="M10" s="23">
+        <f>((100-K10)*0.01)*L10</f>
+        <v>15894.304000000002</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="13">
+        <v>20</v>
+      </c>
+      <c r="I11" s="34">
+        <v>19510</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K11" s="13">
+        <v>20</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" ref="L11:L36" si="0">I11+(J11*I11)</f>
+        <v>19822.16</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" ref="M11:M36" si="1">((100-K11)*0.01)*L11</f>
+        <v>15857.728000000001</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="13">
+        <v>20</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K12" s="18">
+        <v>20</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="13">
+        <v>20</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>20</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="13">
+        <v>20</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K14" s="18">
+        <v>20</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="13">
+        <v>20</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K15" s="13">
+        <v>20</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="13">
+        <v>20</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K16" s="18">
+        <v>20</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="13">
+        <v>20</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K17" s="13">
+        <v>20</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="13">
+        <v>20</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K18" s="18">
+        <v>20</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="13">
+        <v>20</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K19" s="13">
+        <v>20</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="13">
+        <v>20</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K20" s="18">
+        <v>20</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="13">
+        <v>20</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K21" s="13">
+        <v>20</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="13">
+        <v>20</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K22" s="18">
+        <v>20</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="13">
+        <v>20</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K23" s="13">
+        <v>20</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="13">
+        <v>20</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K24" s="18">
+        <v>20</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="13">
+        <v>20</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K25" s="13">
+        <v>20</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="13">
+        <v>20</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K26" s="18">
+        <v>20</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="13">
+        <v>20</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K27" s="13">
+        <v>20</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="13">
+        <v>20</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K28" s="18">
+        <v>20</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="13">
+        <v>20</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K29" s="13">
+        <v>20</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="13">
+        <v>20</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K30" s="18">
+        <v>20</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="13">
+        <v>20</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K31" s="13">
+        <v>20</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="13">
+        <v>20</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K32" s="18">
+        <v>20</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="26">
+        <v>-1.9</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="13">
+        <v>20</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K33" s="13">
+        <v>20</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="26">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="13">
+        <v>20</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K34" s="18">
+        <v>20</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="26">
+        <v>-3.5</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="13">
+        <v>20</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K35" s="13">
+        <v>20</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="26">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="13">
+        <v>20</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K36" s="18">
+        <v>20</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="P8:Z8"/>
+    <mergeCell ref="G6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:AF37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="19" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="K1" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="H3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="42">
+        <v>100</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="2:32" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="18">
+        <v>20</v>
+      </c>
+      <c r="K10" s="33">
+        <v>19555</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M10" s="18">
+        <v>20</v>
+      </c>
+      <c r="N10" s="23">
+        <f>K10+(L10*K10)</f>
+        <v>19867.88</v>
+      </c>
+      <c r="O10" s="23">
+        <f>((100-M10)*0.01)*N10</f>
+        <v>15894.304000000002</v>
+      </c>
+      <c r="P10" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R10" s="43"/>
+      <c r="S10" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="G11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="13">
+        <v>20</v>
+      </c>
+      <c r="K11" s="34">
+        <v>19510</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M11" s="13">
+        <v>20</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11:N36" si="0">K11+(L11*K11)</f>
+        <v>19822.16</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" ref="O11:O36" si="1">((100-M11)*0.01)*N11</f>
+        <v>15857.728000000001</v>
+      </c>
+      <c r="P11" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R11" s="43"/>
+      <c r="S11" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="G12" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="13">
+        <v>20</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>20</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R12" s="43"/>
+      <c r="S12" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="G13" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="13">
+        <v>20</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M13" s="13">
+        <v>20</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R13" s="43"/>
+      <c r="S13" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="13">
+        <v>20</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M14" s="18">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="13">
+        <v>20</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M15" s="13">
+        <v>20</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R15" s="43"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="13">
+        <v>20</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M16" s="18">
+        <v>20</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R16" s="43"/>
+      <c r="S16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="13">
+        <v>20</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M17" s="13">
+        <v>20</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R17" s="43"/>
+      <c r="S17" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="13">
+        <v>20</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M18" s="18">
+        <v>20</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R18" s="43"/>
+      <c r="S18" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="13">
+        <v>20</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M19" s="13">
+        <v>20</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R19" s="43"/>
+      <c r="S19" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="13">
+        <v>20</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M20" s="18">
+        <v>20</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R20" s="43"/>
+      <c r="S20" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="13">
+        <v>20</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M21" s="13">
+        <v>20</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R21" s="43"/>
+      <c r="S21" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="13">
+        <v>20</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M22" s="18">
+        <v>20</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R22" s="43"/>
+      <c r="S22" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="13">
+        <v>20</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M23" s="13">
+        <v>20</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R23" s="43"/>
+      <c r="S23" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="13">
+        <v>20</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M24" s="18">
+        <v>20</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="13">
+        <v>20</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M25" s="13">
+        <v>20</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="13">
+        <v>20</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M26" s="18">
+        <v>20</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="13">
+        <v>20</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M27" s="13">
+        <v>20</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="13">
+        <v>20</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M28" s="18">
+        <v>20</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="13">
+        <v>20</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M29" s="13">
+        <v>20</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="13">
+        <v>20</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M30" s="18">
+        <v>20</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="13">
+        <v>20</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M31" s="13">
+        <v>20</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="13">
+        <v>20</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M32" s="18">
+        <v>20</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="G33" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="13">
+        <v>20</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M33" s="13">
+        <v>20</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="G34" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="13">
+        <v>20</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M34" s="18">
+        <v>20</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="G35" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="13">
+        <v>20</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M35" s="13">
+        <v>20</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="49">
+        <v>-5</v>
+      </c>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="G36" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="13">
+        <v>20</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M36" s="18">
+        <v>20</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="49">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="48">
+        <v>-5</v>
+      </c>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>